--- a/results/prediction/chg_LNeg_LNur/look_neg_look_neut/negative_clusters_k50.xlsx
+++ b/results/prediction/chg_LNeg_LNur/look_neg_look_neut/negative_clusters_k50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="24">
   <si>
     <t>Hemisphere</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Declive</t>
   </si>
   <si>
-    <t>Cuneus</t>
-  </si>
-  <si>
     <t>Precentral_Gyrus</t>
   </si>
   <si>
@@ -79,16 +76,13 @@
     <t>Culmen</t>
   </si>
   <si>
-    <t>Thalamus</t>
-  </si>
-  <si>
     <t>Inferior_Frontal_Gyrus</t>
   </si>
   <si>
+    <t>Middle_Temporal_Gyrus</t>
+  </si>
+  <si>
     <t>Paracentral_Lobule</t>
-  </si>
-  <si>
-    <t>Middle_Temporal_Gyrus</t>
   </si>
   <si>
     <t>Postcentral_Gyrus</t>
@@ -449,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,7 +489,7 @@
         <v>42</v>
       </c>
       <c r="F2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G2">
         <v>-11.32</v>
@@ -518,7 +512,7 @@
         <v>-6</v>
       </c>
       <c r="F3">
-        <v>2041</v>
+        <v>2229</v>
       </c>
       <c r="G3">
         <v>-10.88</v>
@@ -541,7 +535,7 @@
         <v>-24</v>
       </c>
       <c r="F4">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G4">
         <v>-10.1</v>
@@ -564,7 +558,7 @@
         <v>-26</v>
       </c>
       <c r="F5">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="G5">
         <v>-9.789999999999999</v>
@@ -572,25 +566,25 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-94</v>
+        <v>-58</v>
       </c>
       <c r="E6">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="G6">
-        <v>-7.41</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -598,45 +592,45 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="D7">
-        <v>-58</v>
+        <v>-12</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F7">
-        <v>136</v>
+        <v>394</v>
       </c>
       <c r="G7">
-        <v>-6.65</v>
+        <v>-6.41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>-46</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-12</v>
+        <v>52</v>
       </c>
       <c r="E8">
-        <v>58</v>
+        <v>-6</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>604</v>
       </c>
       <c r="G8">
-        <v>-6.41</v>
+        <v>-6.33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -644,22 +638,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>52</v>
+        <v>-26</v>
       </c>
       <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
         <v>-6</v>
-      </c>
-      <c r="F9">
-        <v>555</v>
-      </c>
-      <c r="G9">
-        <v>-6.33</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -667,22 +661,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>-26</v>
+        <v>60</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="G10">
-        <v>-6</v>
+        <v>-5.84</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -690,68 +684,68 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="G11">
-        <v>-5.84</v>
+        <v>-5.41</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>-38</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>-24</v>
       </c>
       <c r="F12">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="G12">
-        <v>-5.41</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
-        <v>-38</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E13">
-        <v>-24</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="G13">
-        <v>-5.17</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -762,19 +756,19 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>-18</v>
       </c>
       <c r="F14">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="G14">
-        <v>-5.1</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -785,42 +779,42 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="E15">
-        <v>-18</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>85</v>
+        <v>403</v>
       </c>
       <c r="G15">
-        <v>-4.59</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>-60</v>
       </c>
       <c r="D16">
-        <v>-24</v>
+        <v>-2</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>430</v>
+        <v>136</v>
       </c>
       <c r="G16">
-        <v>-4.5</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -828,22 +822,22 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>-60</v>
+        <v>-18</v>
       </c>
       <c r="D17">
         <v>-2</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>-18</v>
       </c>
       <c r="F17">
-        <v>178</v>
+        <v>618</v>
       </c>
       <c r="G17">
-        <v>-4.34</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -851,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>589</v>
+        <v>212</v>
       </c>
       <c r="G18">
-        <v>-4.2</v>
+        <v>-4.16</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -874,22 +868,22 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>-20</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F19">
-        <v>199</v>
+        <v>498</v>
       </c>
       <c r="G19">
-        <v>-4.16</v>
+        <v>-3.84</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -897,22 +891,22 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-20</v>
+        <v>-16</v>
       </c>
       <c r="E20">
-        <v>-2</v>
+        <v>62</v>
       </c>
       <c r="F20">
-        <v>635</v>
+        <v>189</v>
       </c>
       <c r="G20">
-        <v>-3.84</v>
+        <v>-3.47</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -920,45 +914,45 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="D21">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>-18</v>
       </c>
       <c r="F21">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="G21">
-        <v>-3.47</v>
+        <v>-3.27</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>-26</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>-56</v>
+        <v>-20</v>
       </c>
       <c r="E22">
-        <v>-22</v>
+        <v>-42</v>
       </c>
       <c r="F22">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="G22">
-        <v>-3.43</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -969,19 +963,19 @@
         <v>19</v>
       </c>
       <c r="C23">
-        <v>-42</v>
+        <v>-24</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>-56</v>
       </c>
       <c r="E23">
-        <v>-18</v>
+        <v>-22</v>
       </c>
       <c r="F23">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G23">
-        <v>-3.27</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -989,45 +983,45 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D24">
-        <v>-20</v>
+        <v>-36</v>
       </c>
       <c r="E24">
-        <v>-42</v>
+        <v>-12</v>
       </c>
       <c r="F24">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="G24">
-        <v>-3.06</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>40</v>
+        <v>-14</v>
       </c>
       <c r="D25">
-        <v>-10</v>
+        <v>-18</v>
       </c>
       <c r="E25">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F25">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G25">
-        <v>-2.97</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1035,22 +1029,22 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C26">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D26">
-        <v>-36</v>
+        <v>-10</v>
       </c>
       <c r="E26">
-        <v>-12</v>
+        <v>18</v>
       </c>
       <c r="F26">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="G26">
-        <v>-2.87</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1058,22 +1052,22 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>-14</v>
+        <v>-32</v>
       </c>
       <c r="D27">
-        <v>-18</v>
+        <v>-40</v>
       </c>
       <c r="E27">
-        <v>78</v>
+        <v>-30</v>
       </c>
       <c r="F27">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="G27">
-        <v>-2.85</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1081,22 +1075,22 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C28">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="D28">
-        <v>-38</v>
+        <v>-28</v>
       </c>
       <c r="E28">
-        <v>-30</v>
+        <v>18</v>
       </c>
       <c r="F28">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="G28">
-        <v>-2.65</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1104,91 +1098,91 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29">
-        <v>-58</v>
+        <v>-40</v>
       </c>
       <c r="D29">
-        <v>-34</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="G29">
-        <v>-2.64</v>
+        <v>-2.47</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>-16</v>
+        <v>56</v>
       </c>
       <c r="D30">
-        <v>-22</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>10</v>
       </c>
       <c r="F30">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="G30">
-        <v>-2.58</v>
+        <v>-2.47</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C31">
-        <v>56</v>
+        <v>-12</v>
       </c>
       <c r="D31">
-        <v>36</v>
+        <v>-40</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>-18</v>
       </c>
       <c r="F31">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="G31">
-        <v>-2.47</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>44</v>
+        <v>-62</v>
       </c>
       <c r="D32">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="E32">
-        <v>-6</v>
+        <v>-16</v>
       </c>
       <c r="F32">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="G32">
-        <v>-2.17</v>
+        <v>-2.32</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1196,22 +1190,22 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D33">
-        <v>-36</v>
+        <v>-10</v>
       </c>
       <c r="E33">
-        <v>56</v>
+        <v>-6</v>
       </c>
       <c r="F33">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G33">
-        <v>-2.14</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1219,45 +1213,45 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C34">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>-34</v>
+        <v>-36</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F34">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="G34">
-        <v>-2.12</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C35">
-        <v>-38</v>
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>-6</v>
+        <v>-34</v>
       </c>
       <c r="E35">
-        <v>-40</v>
+        <v>8</v>
       </c>
       <c r="F35">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="G35">
-        <v>-1.89</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1265,21 +1259,44 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C36">
+        <v>-38</v>
+      </c>
+      <c r="D36">
+        <v>-6</v>
+      </c>
+      <c r="E36">
+        <v>-40</v>
+      </c>
+      <c r="F36">
+        <v>82</v>
+      </c>
+      <c r="G36">
+        <v>-1.89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37">
         <v>-62</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>-24</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>38</v>
       </c>
-      <c r="F36">
-        <v>69</v>
-      </c>
-      <c r="G36">
+      <c r="F37">
+        <v>63</v>
+      </c>
+      <c r="G37">
         <v>-1.76</v>
       </c>
     </row>
